--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\Postprocessing_Actin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Data to be processed (path)</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results</t>
+    <t>Path of the pillar array info</t>
+  </si>
+  <si>
+    <t>Saving path</t>
+  </si>
+  <si>
+    <t>Exp date</t>
+  </si>
+  <si>
+    <t>Channel height (um)</t>
+  </si>
+  <si>
+    <t>Channel width (um)</t>
+  </si>
+  <si>
+    <t>Flow rate (nL/s)</t>
+  </si>
+  <si>
+    <t>Initial velocity (m/s)</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Figures</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Figures</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\circlesforPAs1_S10.mat</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\circlesforPAs2_S10.mat</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Shapes_1</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Shapes_2</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Shapes_1</t>
+  </si>
+  <si>
+    <t>Calibration (um/pixel)</t>
   </si>
 </sst>
 </file>
@@ -76,9 +115,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,31 +399,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" customWidth="1"/>
-    <col min="2" max="2" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" customWidth="1"/>
+    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2">
+        <v>48</v>
+      </c>
+      <c r="F2">
+        <v>400</v>
+      </c>
+      <c r="G2">
+        <v>0.5</v>
+      </c>
+      <c r="H2">
+        <f>G2/F2/E2</f>
+        <v>2.6041666666666668E-5</v>
+      </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>400</v>
+      </c>
+      <c r="G3">
+        <v>0.5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H4" si="0">G3/F3/E3</f>
+        <v>2.2727272727272729E-5</v>
+      </c>
+      <c r="I3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>400</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545459E-5</v>
+      </c>
+      <c r="I4">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -72,6 +72,33 @@
   </si>
   <si>
     <t>Calibration (um/pixel)</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Shapes_1</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Shapes_1</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Shapes_2</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Figures</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Figures</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\circlesforPAs1.mat</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\circlesforPAs2.mat</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\circlesforPAs1.mat</t>
+  </si>
+  <si>
+    <t>Exposure time (ms)</t>
   </si>
 </sst>
 </file>
@@ -399,26 +426,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.5703125" customWidth="1"/>
-    <col min="3" max="3" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -446,8 +474,11 @@
       <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44299</v>
       </c>
@@ -476,8 +507,11 @@
       <c r="I2">
         <v>0.1</v>
       </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44316</v>
       </c>
@@ -500,14 +534,17 @@
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H4" si="0">G3/F3/E3</f>
+        <f t="shared" ref="H3:H7" si="0">G3/F3/E3</f>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I3">
         <v>0.1</v>
       </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44316</v>
       </c>
@@ -535,6 +572,108 @@
       </c>
       <c r="I4">
         <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>400</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="I5">
+        <v>0.1</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>400</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333331E-5</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>400</v>
+      </c>
+      <c r="G7">
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>4.1666666666666665E-5</v>
+      </c>
+      <c r="I7">
+        <v>0.1</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -62,27 +62,9 @@
     <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\circlesforPAs2_S10.mat</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Shapes_1</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Shapes_2</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Shapes_1</t>
-  </si>
-  <si>
     <t>Calibration (um/pixel)</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Shapes_1</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Shapes_1</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Shapes_2</t>
-  </si>
-  <si>
     <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Figures</t>
   </si>
   <si>
@@ -99,6 +81,51 @@
   </si>
   <si>
     <t>Exposure time (ms)</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\circlesforPAs20211029_S15.mat</t>
+  </si>
+  <si>
+    <t>29/10/2021</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_3</t>
+  </si>
+  <si>
+    <t>13/04/2021</t>
+  </si>
+  <si>
+    <t>30/04/2021</t>
+  </si>
+  <si>
+    <t>25/09/2020</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Figures</t>
   </si>
 </sst>
 </file>
@@ -426,17 +453,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -472,18 +499,18 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>44299</v>
+      <c r="A2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -512,11 +539,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>44316</v>
+      <c r="A3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -534,7 +561,7 @@
         <v>0.5</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="0">G3/F3/E3</f>
+        <f t="shared" ref="H3:H10" si="0">G3/F3/E3</f>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I3">
@@ -545,11 +572,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>44316</v>
+      <c r="A4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -578,17 +605,17 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>44099</v>
+      <c r="A5" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -611,17 +638,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44099</v>
+      <c r="A6" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -645,16 +672,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44105</v>
+        <v>43840</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -673,6 +700,105 @@
         <v>0.1</v>
       </c>
       <c r="J7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>400</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2.2727272727272729E-5</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>55</v>
+      </c>
+      <c r="F9">
+        <v>400</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545459E-5</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>55</v>
+      </c>
+      <c r="F10">
+        <v>400</v>
+      </c>
+      <c r="G10">
+        <v>1.5</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>6.8181818181818184E-5</v>
+      </c>
+      <c r="I10">
+        <v>0.1</v>
+      </c>
+      <c r="J10">
         <v>20</v>
       </c>
     </row>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\Postprocessing_Actin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\Postprocessing_Actin - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -50,12 +51,6 @@
     <t>Initial velocity (m/s)</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Figures</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Figures</t>
-  </si>
-  <si>
     <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\circlesforPAs1_S10.mat</t>
   </si>
   <si>
@@ -65,12 +60,6 @@
     <t>Calibration (um/pixel)</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Figures</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Figures</t>
-  </si>
-  <si>
     <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\circlesforPAs1.mat</t>
   </si>
   <si>
@@ -125,7 +114,28 @@
     <t>25/09/2020</t>
   </si>
   <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Figures</t>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Classification manually 20210413-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Classification manually 20210430-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Classification manually 20211029-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20210413-Actin\Figures</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20210430-Actin\Figures</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20200925-Actin\Figures</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20201001-Actin\Figures</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20211029-Actin\Figures</t>
   </si>
 </sst>
 </file>
@@ -455,16 +465,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
@@ -499,24 +509,24 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <v>48</v>
@@ -540,16 +550,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>55</v>
@@ -573,16 +583,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E4">
         <v>55</v>
@@ -606,16 +616,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>30</v>
@@ -639,16 +649,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>30</v>
@@ -675,13 +685,13 @@
         <v>43840</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -705,16 +715,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -738,16 +748,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -771,16 +781,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -806,4 +816,74 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\Postprocessing_Actin - Copy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\Postprocessing_Actin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -136,6 +136,12 @@
   </si>
   <si>
     <t>E:\Dropbox\Research\All Plottings\20211029-Actin\Figures</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Classification manually 20201001-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Classification manually 20200925-Actin.xlsx</t>
   </si>
 </sst>
 </file>
@@ -466,7 +472,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,10 +826,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +889,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -111,9 +111,6 @@
     <t>30/04/2021</t>
   </si>
   <si>
-    <t>25/09/2020</t>
-  </si>
-  <si>
     <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Classification manually 20210413-Actin.xlsx</t>
   </si>
   <si>
@@ -142,12 +139,24 @@
   </si>
   <si>
     <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Classification manually 20200925-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20220104-Actin\Figures</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\circlesforPAs20220104_S15.mat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,10 +194,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,96 +532,96 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
+      <c r="A2" s="3">
+        <v>44099</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F2">
         <v>400</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <f>G2/F2/E2</f>
-        <v>2.6041666666666668E-5</v>
+        <v>8.3333333333333331E-5</v>
       </c>
       <c r="I2">
         <v>0.1</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
+      <c r="A3" s="3">
+        <v>44099</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>400</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H10" si="0">G3/F3/E3</f>
-        <v>2.2727272727272729E-5</v>
+        <f>G3/F3/E3</f>
+        <v>8.3333333333333331E-5</v>
       </c>
       <c r="I3">
         <v>0.1</v>
       </c>
       <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>44105</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F4">
         <v>400</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545459E-5</v>
+        <f>G4/F4/E4</f>
+        <v>4.1666666666666665E-5</v>
       </c>
       <c r="I4">
         <v>0.1</v>
@@ -621,96 +631,96 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
+      <c r="A5" s="3">
+        <v>44299</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333331E-5</v>
+        <f>G5/F5/E5</f>
+        <v>2.6041666666666668E-5</v>
       </c>
       <c r="I5">
         <v>0.1</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>28</v>
+      <c r="A6" s="3">
+        <v>44316</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F6">
         <v>400</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>8.3333333333333331E-5</v>
+        <f>G6/F6/E6</f>
+        <v>2.2727272727272729E-5</v>
       </c>
       <c r="I6">
         <v>0.1</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>43840</v>
+      <c r="A7" s="3">
+        <v>44316</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F7">
         <v>400</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666665E-5</v>
+        <f>G7/F7/E7</f>
+        <v>4.5454545454545459E-5</v>
       </c>
       <c r="I7">
         <v>0.1</v>
@@ -720,8 +730,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
+      <c r="A8" s="3">
+        <v>44498</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -730,7 +740,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -742,7 +752,7 @@
         <v>0.5</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f>G8/F8/E8</f>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I8">
@@ -753,8 +763,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>22</v>
+      <c r="A9" s="3">
+        <v>44498</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -763,7 +773,7 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -775,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f>G9/F9/E9</f>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I9">
@@ -786,8 +796,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
+      <c r="A10" s="3">
+        <v>44498</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -796,7 +806,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -808,7 +818,7 @@
         <v>1.5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f>G10/F10/E10</f>
         <v>6.8181818181818184E-5</v>
       </c>
       <c r="I10">
@@ -818,7 +828,220 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>44565</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>400</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <f>G11/F11/E11</f>
+        <v>4.5454545454545459E-5</v>
+      </c>
+      <c r="I11">
+        <v>0.1</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:J10">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -828,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -857,55 +1080,58 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:C6">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\circlesforPAs20220104_S15.mat</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\Classification manually 20220104-Actin.xlsx</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,7 +484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -554,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f>G2/F2/E2</f>
+        <f t="shared" ref="H2:H11" si="0">G2/F2/E2</f>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I2">
@@ -587,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f>G3/F3/E3</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I3">
@@ -620,7 +623,7 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <f>G4/F4/E4</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666665E-5</v>
       </c>
       <c r="I4">
@@ -653,7 +656,7 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <f>G5/F5/E5</f>
+        <f t="shared" si="0"/>
         <v>2.6041666666666668E-5</v>
       </c>
       <c r="I5">
@@ -686,7 +689,7 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f>G6/F6/E6</f>
+        <f t="shared" si="0"/>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I6">
@@ -719,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f>G7/F7/E7</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I7">
@@ -752,7 +755,7 @@
         <v>0.5</v>
       </c>
       <c r="H8">
-        <f>G8/F8/E8</f>
+        <f t="shared" si="0"/>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I8">
@@ -785,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f>G9/F9/E9</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I9">
@@ -818,7 +821,7 @@
         <v>1.5</v>
       </c>
       <c r="H10">
-        <f>G10/F10/E10</f>
+        <f t="shared" si="0"/>
         <v>6.8181818181818184E-5</v>
       </c>
       <c r="I10">
@@ -851,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f>G11/F11/E11</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I11">
@@ -1049,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,6 +1131,14 @@
         <v>35</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:C6">
     <sortCondition ref="B1"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -93,9 +93,6 @@
     <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\circlesforPAs20211029_S15.mat</t>
   </si>
   <si>
-    <t>29/10/2021</t>
-  </si>
-  <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_1</t>
   </si>
   <si>
@@ -103,12 +100,6 @@
   </si>
   <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_3</t>
-  </si>
-  <si>
-    <t>13/04/2021</t>
-  </si>
-  <si>
-    <t>30/04/2021</t>
   </si>
   <si>
     <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Classification manually 20210413-Actin.xlsx</t>
@@ -197,10 +188,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -485,7 +475,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +525,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>44099</v>
       </c>
       <c r="B2" t="s">
@@ -545,7 +535,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -568,7 +558,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>44099</v>
       </c>
       <c r="B3" t="s">
@@ -578,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -601,7 +591,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44105</v>
       </c>
       <c r="B4" t="s">
@@ -611,7 +601,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -634,7 +624,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44299</v>
       </c>
       <c r="B5" t="s">
@@ -644,7 +634,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5">
         <v>48</v>
@@ -667,7 +657,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44316</v>
       </c>
       <c r="B6" t="s">
@@ -677,7 +667,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>55</v>
@@ -700,7 +690,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44316</v>
       </c>
       <c r="B7" t="s">
@@ -710,7 +700,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -733,17 +723,17 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44498</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -766,17 +756,17 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44498</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -799,17 +789,17 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44498</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -832,17 +822,17 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44565</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>55</v>
@@ -865,181 +855,181 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="2"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="2"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="2"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="2"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="2"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="2"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="2"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="2"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="2"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="2"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="2"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="2"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="2"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="2"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="2"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="2"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="2"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="2"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="A57" s="2"/>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="2"/>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="2"/>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="2"/>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="2"/>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="2"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="2"/>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="2"/>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="A67" s="2"/>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="2"/>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="2"/>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:J10">
@@ -1052,10 +1042,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,61 +1073,253 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>44099</v>
+      </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>44299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:C6">

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -142,6 +142,21 @@
   </si>
   <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\Classification manually 20220104-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>Pillar array types</t>
+  </si>
+  <si>
+    <t>OldMask_Square_Phi20_Gap10_FlowAng0</t>
+  </si>
+  <si>
+    <t>OldMask_Square_Phi20_Gap5_FlowAng0</t>
+  </si>
+  <si>
+    <t>CrMask_Rhombic_Phi20_Gap10_FlowAng0</t>
+  </si>
+  <si>
+    <t>CrMask_Rhombic_Phi20_Gap15_FlowAng0</t>
   </si>
 </sst>
 </file>
@@ -472,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,9 +505,10 @@
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -523,8 +539,11 @@
       <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44099</v>
       </c>
@@ -556,8 +575,11 @@
       <c r="J2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44099</v>
       </c>
@@ -589,8 +611,11 @@
       <c r="J3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44105</v>
       </c>
@@ -622,8 +647,11 @@
       <c r="J4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44299</v>
       </c>
@@ -655,8 +683,11 @@
       <c r="J5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44316</v>
       </c>
@@ -688,8 +719,11 @@
       <c r="J6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44316</v>
       </c>
@@ -721,8 +755,11 @@
       <c r="J7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44498</v>
       </c>
@@ -754,8 +791,11 @@
       <c r="J8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44498</v>
       </c>
@@ -787,8 +827,11 @@
       <c r="J9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44498</v>
       </c>
@@ -820,8 +863,11 @@
       <c r="J10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44565</v>
       </c>
@@ -853,20 +899,23 @@
       <c r="J11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1042,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,7 +1102,7 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="92.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
@@ -1061,7 +1110,7 @@
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1071,8 +1120,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44099</v>
       </c>
@@ -1082,8 +1134,11 @@
       <c r="C2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44105</v>
       </c>
@@ -1093,8 +1148,11 @@
       <c r="C3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44299</v>
       </c>
@@ -1104,8 +1162,11 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44316</v>
       </c>
@@ -1115,8 +1176,11 @@
       <c r="C5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44498</v>
       </c>
@@ -1126,8 +1190,11 @@
       <c r="C6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44565</v>
       </c>
@@ -1137,26 +1204,29 @@
       <c r="C7" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>CrMask_Rhombic_Phi20_Gap15_FlowAng0</t>
+  </si>
+  <si>
+    <t>Pillar array type labels</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
@@ -1091,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1113,7 @@
     <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1123,8 +1126,11 @@
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44099</v>
       </c>
@@ -1137,8 +1143,11 @@
       <c r="D2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44105</v>
       </c>
@@ -1151,8 +1160,11 @@
       <c r="D3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44299</v>
       </c>
@@ -1165,8 +1177,11 @@
       <c r="D4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44316</v>
       </c>
@@ -1179,8 +1194,11 @@
       <c r="D5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44498</v>
       </c>
@@ -1193,8 +1211,11 @@
       <c r="D6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44565</v>
       </c>
@@ -1207,26 +1228,29 @@
       <c r="D7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>Pillar array type labels</t>
+  </si>
+  <si>
+    <t>Center-to-center distance</t>
+  </si>
+  <si>
+    <t>Pillar diameter</t>
   </si>
 </sst>
 </file>
@@ -490,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,9 +515,11 @@
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,8 +553,14 @@
       <c r="K1" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44099</v>
       </c>
@@ -581,8 +595,14 @@
       <c r="K2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44099</v>
       </c>
@@ -617,8 +637,14 @@
       <c r="K3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>30</v>
+      </c>
+      <c r="M3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44105</v>
       </c>
@@ -653,8 +679,14 @@
       <c r="K4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44299</v>
       </c>
@@ -689,8 +721,14 @@
       <c r="K5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>30</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44316</v>
       </c>
@@ -725,8 +763,14 @@
       <c r="K6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44316</v>
       </c>
@@ -761,8 +805,14 @@
       <c r="K7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>30</v>
+      </c>
+      <c r="M7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44498</v>
       </c>
@@ -797,8 +847,14 @@
       <c r="K8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>35</v>
+      </c>
+      <c r="M8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44498</v>
       </c>
@@ -833,8 +889,14 @@
       <c r="K9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>35</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44498</v>
       </c>
@@ -869,8 +931,14 @@
       <c r="K10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>35</v>
+      </c>
+      <c r="M10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44565</v>
       </c>
@@ -905,20 +973,26 @@
       <c r="K11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
@@ -1096,7 +1170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -102,15 +102,6 @@
     <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_3</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Classification manually 20210413-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Classification manually 20210430-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Classification manually 20211029-Actin.xlsx</t>
-  </si>
-  <si>
     <t>E:\Dropbox\Research\All Plottings\20210413-Actin\Figures</t>
   </si>
   <si>
@@ -126,12 +117,6 @@
     <t>E:\Dropbox\Research\All Plottings\20211029-Actin\Figures</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Classification manually 20201001-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Classification manually 20200925-Actin.xlsx</t>
-  </si>
-  <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\Group_1</t>
   </si>
   <si>
@@ -141,9 +126,6 @@
     <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\circlesforPAs20220104_S15.mat</t>
   </si>
   <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\Classification manually 20220104-Actin.xlsx</t>
-  </si>
-  <si>
     <t>Pillar array types</t>
   </si>
   <si>
@@ -166,6 +148,42 @@
   </si>
   <si>
     <t>Pillar diameter</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\circlesforPAs20210914_G10.mat</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20210914-Actin\Figures</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng0</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20200925-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20201001-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210413-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210430-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20211029-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220104-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210914-Actin.xlsx</t>
   </si>
 </sst>
 </file>
@@ -212,10 +230,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,13 +570,13 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -571,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -583,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H11" si="0">G2/F2/E2</f>
+        <f>G2/F2/E2</f>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I2">
@@ -593,7 +612,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L2">
         <v>30</v>
@@ -613,7 +632,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -625,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f t="shared" si="0"/>
+        <f>G3/F3/E3</f>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I3">
@@ -635,7 +654,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L3">
         <v>30</v>
@@ -655,7 +674,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -667,7 +686,7 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f>G4/F4/E4</f>
         <v>4.1666666666666665E-5</v>
       </c>
       <c r="I4">
@@ -677,7 +696,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -697,7 +716,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>48</v>
@@ -709,7 +728,7 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f>G5/F5/E5</f>
         <v>2.6041666666666668E-5</v>
       </c>
       <c r="I5">
@@ -719,7 +738,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L5">
         <v>30</v>
@@ -739,7 +758,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>55</v>
@@ -751,7 +770,7 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f>G6/F6/E6</f>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I6">
@@ -761,7 +780,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L6">
         <v>30</v>
@@ -781,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -793,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f>G7/F7/E7</f>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I7">
@@ -803,7 +822,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="L7">
         <v>30</v>
@@ -814,16 +833,16 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>44498</v>
+        <v>44453</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -834,9 +853,8 @@
       <c r="G8">
         <v>0.5</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2.2727272727272729E-5</v>
+      <c r="H8" s="3">
+        <v>2.2727299999999998E-5</v>
       </c>
       <c r="I8">
         <v>0.1</v>
@@ -845,10 +863,10 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M8">
         <v>20</v>
@@ -856,16 +874,16 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>44498</v>
+        <v>44453</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -876,9 +894,8 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>4.5454545454545459E-5</v>
+      <c r="H9" s="3">
+        <v>4.5454500000000003E-5</v>
       </c>
       <c r="I9">
         <v>0.1</v>
@@ -887,10 +904,10 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="M9">
         <v>20</v>
@@ -901,13 +918,13 @@
         <v>44498</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -916,11 +933,11 @@
         <v>400</v>
       </c>
       <c r="G10">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
-        <v>6.8181818181818184E-5</v>
+        <f>G10/F10/E10</f>
+        <v>2.2727272727272729E-5</v>
       </c>
       <c r="I10">
         <v>0.1</v>
@@ -929,7 +946,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L10">
         <v>35</v>
@@ -940,16 +957,16 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>44565</v>
+        <v>44498</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>55</v>
@@ -961,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f>G11/F11/E11</f>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I11">
@@ -971,7 +988,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L11">
         <v>35</v>
@@ -981,10 +998,88 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+      <c r="F12">
+        <v>400</v>
+      </c>
+      <c r="G12">
+        <v>1.5</v>
+      </c>
+      <c r="H12">
+        <f>G12/F12/E12</f>
+        <v>6.8181818181818184E-5</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12">
+        <v>35</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>55</v>
+      </c>
+      <c r="F13">
+        <v>400</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>G13/F13/E13</f>
+        <v>4.5454545454545459E-5</v>
+      </c>
+      <c r="I13">
+        <v>0.1</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13">
+        <v>35</v>
+      </c>
+      <c r="M13">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1158,7 +1253,7 @@
       <c r="A70" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:J10">
+  <sortState ref="A2:M70">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1170,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,10 +1293,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,13 +1304,13 @@
         <v>44099</v>
       </c>
       <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1226,13 +1321,13 @@
         <v>44105</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1243,13 +1338,13 @@
         <v>44299</v>
       </c>
       <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1260,13 +1355,13 @@
         <v>44316</v>
       </c>
       <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1274,40 +1369,54 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>44498</v>
+        <v>44453</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>44565</v>
+        <v>44498</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="2">
+        <v>44565</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -1490,8 +1599,8 @@
       <c r="A70" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C6">
-    <sortCondition ref="B1"/>
+  <sortState ref="A2:E70">
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -184,6 +184,39 @@
   </si>
   <si>
     <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210914-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_3</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20220216-Actin\Figures</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng10</t>
+  </si>
+  <si>
+    <t>Flow angle</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\circlesforPAs20220216_T10.mat</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220216-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220217-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>E:\Dropbox\Research\All Plottings\20220217-Actin\Figures</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng20</t>
   </si>
 </sst>
 </file>
@@ -515,17 +548,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M70"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -536,9 +570,10 @@
     <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -578,8 +613,11 @@
       <c r="M1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44099</v>
       </c>
@@ -602,7 +640,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <f>G2/F2/E2</f>
+        <f t="shared" ref="H2:H7" si="0">G2/F2/E2</f>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I2">
@@ -620,8 +658,11 @@
       <c r="M2">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44099</v>
       </c>
@@ -644,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <f>G3/F3/E3</f>
+        <f t="shared" si="0"/>
         <v>8.3333333333333331E-5</v>
       </c>
       <c r="I3">
@@ -662,8 +703,11 @@
       <c r="M3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44105</v>
       </c>
@@ -686,7 +730,7 @@
         <v>0.5</v>
       </c>
       <c r="H4">
-        <f>G4/F4/E4</f>
+        <f t="shared" si="0"/>
         <v>4.1666666666666665E-5</v>
       </c>
       <c r="I4">
@@ -704,8 +748,11 @@
       <c r="M4">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44299</v>
       </c>
@@ -728,7 +775,7 @@
         <v>0.5</v>
       </c>
       <c r="H5">
-        <f>G5/F5/E5</f>
+        <f t="shared" si="0"/>
         <v>2.6041666666666668E-5</v>
       </c>
       <c r="I5">
@@ -746,8 +793,11 @@
       <c r="M5">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44316</v>
       </c>
@@ -770,7 +820,7 @@
         <v>0.5</v>
       </c>
       <c r="H6">
-        <f>G6/F6/E6</f>
+        <f t="shared" si="0"/>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I6">
@@ -788,8 +838,11 @@
       <c r="M6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44316</v>
       </c>
@@ -812,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <f>G7/F7/E7</f>
+        <f t="shared" si="0"/>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I7">
@@ -830,8 +883,11 @@
       <c r="M7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44453</v>
       </c>
@@ -871,8 +927,11 @@
       <c r="M8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44453</v>
       </c>
@@ -912,8 +971,11 @@
       <c r="M9">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44498</v>
       </c>
@@ -954,8 +1016,11 @@
       <c r="M10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44498</v>
       </c>
@@ -996,8 +1061,11 @@
       <c r="M11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44498</v>
       </c>
@@ -1038,8 +1106,11 @@
       <c r="M12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44565</v>
       </c>
@@ -1080,15 +1151,144 @@
       <c r="M13">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="N13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+      <c r="F14">
+        <v>400</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
+      </c>
+      <c r="H14">
+        <f>G14/F14/E14</f>
+        <v>2.2727272727272729E-5</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+      <c r="K14" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
+        <v>55</v>
+      </c>
+      <c r="F15">
+        <v>400</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <f>G15/F15/E15</f>
+        <v>4.5454545454545459E-5</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>20</v>
+      </c>
+      <c r="K15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+      <c r="M15">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>55</v>
+      </c>
+      <c r="F16">
+        <v>400</v>
+      </c>
+      <c r="G16">
+        <v>1.5</v>
+      </c>
+      <c r="H16">
+        <f>G16/F16/E16</f>
+        <v>6.8181818181818184E-5</v>
+      </c>
+      <c r="I16">
+        <v>0.1</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+      <c r="K16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -1266,13 +1466,14 @@
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" customWidth="1"/>
     <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1419,7 +1620,38 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>44608</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -998,7 +998,7 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <f>G10/F10/E10</f>
+        <f t="shared" ref="H10:H16" si="1">G10/F10/E10</f>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I10">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <f>G11/F11/E11</f>
+        <f t="shared" si="1"/>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I11">
@@ -1088,7 +1088,7 @@
         <v>1.5</v>
       </c>
       <c r="H12">
-        <f>G12/F12/E12</f>
+        <f t="shared" si="1"/>
         <v>6.8181818181818184E-5</v>
       </c>
       <c r="I12">
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <f>G13/F13/E13</f>
+        <f t="shared" si="1"/>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I13">
@@ -1178,7 +1178,7 @@
         <v>0.5</v>
       </c>
       <c r="H14">
-        <f>G14/F14/E14</f>
+        <f t="shared" si="1"/>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I14">
@@ -1223,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <f>G15/F15/E15</f>
+        <f t="shared" si="1"/>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I15">
@@ -1268,7 +1268,7 @@
         <v>1.5</v>
       </c>
       <c r="H16">
-        <f>G16/F16/E16</f>
+        <f t="shared" si="1"/>
         <v>6.8181818181818184E-5</v>
       </c>
       <c r="I16">
@@ -1467,7 +1467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C11" sqref="C11"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1835,5 +1835,6 @@
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -217,6 +217,15 @@
   </si>
   <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng20</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\Group_3</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_30.mat</t>
   </si>
 </sst>
 </file>
@@ -550,9 +559,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,52 +1299,136 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17">
+        <v>55</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H18" si="2">G17/F17/E17</f>
+        <v>4.5454545454545459E-5</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18">
+        <v>55</v>
+      </c>
+      <c r="F18">
+        <v>400</v>
+      </c>
+      <c r="G18">
+        <v>1.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>6.8181818181818184E-5</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
@@ -1465,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_30.mat</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_2.mat</t>
   </si>
 </sst>
 </file>
@@ -557,11 +563,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +1013,7 @@
         <v>0.5</v>
       </c>
       <c r="H10">
-        <f t="shared" ref="H10:H16" si="1">G10/F10/E10</f>
+        <f t="shared" ref="H10:H17" si="1">G10/F10/E10</f>
         <v>2.2727272727272729E-5</v>
       </c>
       <c r="I10">
@@ -1304,10 +1310,10 @@
         <v>44609</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>62</v>
@@ -1319,11 +1325,11 @@
         <v>400</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H18" si="2">G17/F17/E17</f>
-        <v>4.5454545454545459E-5</v>
+        <f t="shared" si="1"/>
+        <v>2.2727272727272729E-5</v>
       </c>
       <c r="I17">
         <v>0.1</v>
@@ -1349,7 +1355,7 @@
         <v>44609</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
         <v>66</v>
@@ -1364,33 +1370,75 @@
         <v>400</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H19" si="2">G18/F18/E18</f>
+        <v>4.5454545454545459E-5</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+      <c r="J18">
+        <v>20</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>44609</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19">
+        <v>55</v>
+      </c>
+      <c r="F19">
+        <v>400</v>
+      </c>
+      <c r="G19">
         <v>1.5</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <f t="shared" si="2"/>
         <v>6.8181818181818184E-5</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>0.1</v>
       </c>
-      <c r="J18">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="J19">
+        <v>20</v>
+      </c>
+      <c r="K19" t="s">
         <v>63</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>30</v>
       </c>
-      <c r="M18">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
+      <c r="M19">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
@@ -1544,6 +1592,9 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:M70">
@@ -1558,9 +1609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D10" sqref="D10"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\GitHub\Postprocessing_Actin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\Postprocessing_Actin\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB4252A-D240-44AB-B591-9B4D98871187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -102,27 +111,9 @@
     <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_3</t>
   </si>
   <si>
-    <t>E:\Dropbox\Research\All Plottings\20210413-Actin\Figures</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\20210430-Actin\Figures</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\20200925-Actin\Figures</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\20201001-Actin\Figures</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\20211029-Actin\Figures</t>
-  </si>
-  <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\Group_1</t>
   </si>
   <si>
-    <t>E:\Dropbox\Research\All Plottings\20220104-Actin\Figures</t>
-  </si>
-  <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\circlesforPAs20220104_S15.mat</t>
   </si>
   <si>
@@ -156,36 +147,12 @@
     <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\circlesforPAs20210914_G10.mat</t>
   </si>
   <si>
-    <t>E:\Dropbox\Research\All Plottings\20210914-Actin\Figures</t>
-  </si>
-  <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng0</t>
   </si>
   <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\Group_2</t>
   </si>
   <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20200925-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20201001-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210413-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210430-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20211029-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220104-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210914-Actin.xlsx</t>
-  </si>
-  <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_3</t>
   </si>
   <si>
@@ -195,9 +162,6 @@
     <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_2</t>
   </si>
   <si>
-    <t>E:\Dropbox\Research\All Plottings\20220216-Actin\Figures</t>
-  </si>
-  <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng10</t>
   </si>
   <si>
@@ -207,15 +171,6 @@
     <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\circlesforPAs20220216_T10.mat</t>
   </si>
   <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220216-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220217-Actin.xlsx</t>
-  </si>
-  <si>
-    <t>E:\Dropbox\Research\All Plottings\20220217-Actin\Figures</t>
-  </si>
-  <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng20</t>
   </si>
   <si>
@@ -232,20 +187,74 @@
   </si>
   <si>
     <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_2.mat</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20200925-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20201001-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20210413-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20210430-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20210914-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20211029-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20220104-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20220216-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20220217-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20200925-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20201001-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210413-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210430-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20210914-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20211029-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220104-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220216-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220217-Actin.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -253,8 +262,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -281,11 +297,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,30 +578,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -620,16 +636,16 @@
         <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -643,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -665,7 +681,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L2">
         <v>30</v>
@@ -688,7 +704,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -710,7 +726,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="L3">
         <v>30</v>
@@ -733,7 +749,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -755,7 +771,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -778,7 +794,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E5">
         <v>48</v>
@@ -800,7 +816,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L5">
         <v>30</v>
@@ -823,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>55</v>
@@ -845,7 +861,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>30</v>
@@ -868,7 +884,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -890,7 +906,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L7">
         <v>30</v>
@@ -907,13 +923,13 @@
         <v>44453</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -934,7 +950,7 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L8">
         <v>30</v>
@@ -951,13 +967,13 @@
         <v>44453</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -978,7 +994,7 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L9">
         <v>30</v>
@@ -1001,7 +1017,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -1023,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L10">
         <v>35</v>
@@ -1046,7 +1062,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>55</v>
@@ -1068,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L11">
         <v>35</v>
@@ -1091,7 +1107,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E12">
         <v>55</v>
@@ -1113,7 +1129,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L12">
         <v>35</v>
@@ -1130,13 +1146,13 @@
         <v>44565</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="E13">
         <v>55</v>
@@ -1158,7 +1174,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L13">
         <v>35</v>
@@ -1175,13 +1191,13 @@
         <v>44608</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14">
         <v>55</v>
@@ -1203,7 +1219,7 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L14">
         <v>30</v>
@@ -1220,13 +1236,13 @@
         <v>44608</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15">
         <v>55</v>
@@ -1248,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L15">
         <v>30</v>
@@ -1265,13 +1281,13 @@
         <v>44608</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16">
         <v>55</v>
@@ -1293,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="L16">
         <v>30</v>
@@ -1310,13 +1326,13 @@
         <v>44609</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E17">
         <v>55</v>
@@ -1338,7 +1354,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L17">
         <v>30</v>
@@ -1355,13 +1371,13 @@
         <v>44609</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>55</v>
@@ -1383,7 +1399,7 @@
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L18">
         <v>30</v>
@@ -1400,13 +1416,13 @@
         <v>44609</v>
       </c>
       <c r="B19" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>55</v>
@@ -1428,7 +1444,7 @@
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="L19">
         <v>30</v>
@@ -1597,34 +1613,35 @@
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:M70">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M70">
     <sortCondition ref="A1"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1638,10 +1655,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1649,13 +1666,13 @@
         <v>44099</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1666,13 +1683,13 @@
         <v>44105</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1683,13 +1700,13 @@
         <v>44299</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1700,13 +1717,13 @@
         <v>44316</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1717,13 +1734,13 @@
         <v>44453</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -1734,13 +1751,13 @@
         <v>44498</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -1751,13 +1768,13 @@
         <v>44565</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -1768,13 +1785,13 @@
         <v>44608</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>6</v>
@@ -1785,13 +1802,13 @@
         <v>44609</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>7</v>
@@ -1975,9 +1992,10 @@
       <c r="A70" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E70">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E70">
     <sortCondition ref="A1"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\Postprocessing_Actin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB4252A-D240-44AB-B591-9B4D98871187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -60,63 +59,12 @@
     <t>Initial velocity (m/s)</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\circlesforPAs1_S10.mat</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\circlesforPAs2_S10.mat</t>
-  </si>
-  <si>
     <t>Calibration (um/pixel)</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\circlesforPAs1.mat</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\circlesforPAs2.mat</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\circlesforPAs1.mat</t>
-  </si>
-  <si>
     <t>Exposure time (ms)</t>
   </si>
   <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210413-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20210430-Actin\results\Group_2</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20200925-Actin\results\Group_2</t>
-  </si>
-  <si>
-    <t>F:\PhD, PMMH, ESPCI\Processing\20201001-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\circlesforPAs20211029_S15.mat</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_2</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20211029-Actin\results\Group_3</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220104-Actin\results\circlesforPAs20220104_S15.mat</t>
-  </si>
-  <si>
     <t>Pillar array types</t>
   </si>
   <si>
@@ -141,54 +89,18 @@
     <t>Pillar diameter</t>
   </si>
   <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\circlesforPAs20210914_G10.mat</t>
-  </si>
-  <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng0</t>
   </si>
   <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20210914-Actin\results\Group_2</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_3</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\Group_2</t>
-  </si>
-  <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng10</t>
   </si>
   <si>
     <t>Flow angle</t>
   </si>
   <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220216-Actin\results\circlesforPAs20220216_T10.mat</t>
-  </si>
-  <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng20</t>
   </si>
   <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\Group_2</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\Group_3</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_30.mat</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\Group_1</t>
-  </si>
-  <si>
-    <t>G:\PhD, PMMH, ESPCI\Processing\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_2.mat</t>
-  </si>
-  <si>
     <t>D:\Dropbox\Research\All Plottings\20200925-Actin\Figures</t>
   </si>
   <si>
@@ -241,20 +153,107 @@
   </si>
   <si>
     <t>D:\Dropbox\Research\All Plottings\Manually classification documents\Classification manually 20220217-Actin.xlsx</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20200925-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20200925-Actin\results\circlesforPAs1.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20200925-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20200925-Actin\results\circlesforPAs2.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20201001-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20201001-Actin\results\circlesforPAs1.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210413-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210413-Actin\results\circlesforPAs1_S10.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210430-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210430-Actin\results\circlesforPAs2_S10.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210430-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210914-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210914-Actin\results\circlesforPAs20210914_G10.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20210914-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20211029-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20211029-Actin\results\circlesforPAs20211029_S15.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20211029-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20211029-Actin\results\Group_3</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220104-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220104-Actin\results\circlesforPAs20220104_S15.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220216-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220216-Actin\results\circlesforPAs20220216_T10.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220216-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220216-Actin\results\Group_3</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220217-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_2.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220217-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220217-Actin\results\circlesforPAs_T20_23.08.21_lowerone_30.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220217-Actin\results\Group_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -262,13 +261,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -297,11 +296,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -578,33 +577,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" customWidth="1"/>
+    <col min="3" max="3" width="104.42578125" customWidth="1"/>
+    <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -630,36 +629,36 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>44099</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>30</v>
@@ -681,7 +680,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L2">
         <v>30</v>
@@ -693,18 +692,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>44099</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -726,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="L3">
         <v>30</v>
@@ -738,18 +737,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>44105</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>30</v>
@@ -771,7 +770,7 @@
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="L4">
         <v>25</v>
@@ -783,18 +782,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>44299</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>48</v>
@@ -816,7 +815,7 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L5">
         <v>30</v>
@@ -828,18 +827,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>44316</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>55</v>
@@ -861,7 +860,7 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L6">
         <v>30</v>
@@ -873,18 +872,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>44316</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>55</v>
@@ -906,7 +905,7 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L7">
         <v>30</v>
@@ -918,18 +917,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>44453</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>55</v>
@@ -950,7 +949,7 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>30</v>
@@ -962,18 +961,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>44453</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>55</v>
@@ -994,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="L9">
         <v>30</v>
@@ -1006,18 +1005,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>44498</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>55</v>
@@ -1039,7 +1038,7 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="L10">
         <v>35</v>
@@ -1051,18 +1050,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>44498</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>55</v>
@@ -1084,7 +1083,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="L11">
         <v>35</v>
@@ -1096,18 +1095,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>44498</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="E12">
         <v>55</v>
@@ -1129,7 +1128,7 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="L12">
         <v>35</v>
@@ -1141,18 +1140,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>44565</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>55</v>
@@ -1174,7 +1173,7 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="L13">
         <v>35</v>
@@ -1186,18 +1185,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>44608</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>55</v>
@@ -1219,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L14">
         <v>30</v>
@@ -1231,18 +1230,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>44608</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>55</v>
@@ -1264,7 +1263,7 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L15">
         <v>30</v>
@@ -1276,18 +1275,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>44608</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>55</v>
@@ -1309,7 +1308,7 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="L16">
         <v>30</v>
@@ -1321,18 +1320,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>44609</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>55</v>
@@ -1354,7 +1353,7 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="L17">
         <v>30</v>
@@ -1366,18 +1365,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>44609</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>55</v>
@@ -1399,7 +1398,7 @@
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="L18">
         <v>30</v>
@@ -1411,18 +1410,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>44609</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>55</v>
@@ -1444,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="L19">
         <v>30</v>
@@ -1456,164 +1455,164 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="2"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1">
       <c r="A71" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M70">
+  <sortState ref="A2:M70">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1623,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -1631,20 +1630,20 @@
       <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="95.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1655,344 +1654,344 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>44099</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>44105</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>44299</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>44316</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>44453</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>44498</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>44565</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>44608</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>44609</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5">
       <c r="A16" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="2"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="2"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="2"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="2"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="2"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="2"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="2"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" s="2"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1">
       <c r="A35" s="2"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="2"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="2"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="2"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="2"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="2"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="2"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="2"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1">
       <c r="A43" s="2"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1">
       <c r="A44" s="2"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1">
       <c r="A45" s="2"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1">
       <c r="A46" s="2"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1">
       <c r="A47" s="2"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1">
       <c r="A48" s="2"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1">
       <c r="A49" s="2"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1">
       <c r="A50" s="2"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1">
       <c r="A51" s="2"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1">
       <c r="A52" s="2"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1">
       <c r="A53" s="2"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1">
       <c r="A54" s="2"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1">
       <c r="A55" s="2"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1">
       <c r="A56" s="2"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1">
       <c r="A57" s="2"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1">
       <c r="A58" s="2"/>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1">
       <c r="A59" s="2"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1">
       <c r="A60" s="2"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1">
       <c r="A61" s="2"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1">
       <c r="A62" s="2"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1">
       <c r="A63" s="2"/>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1">
       <c r="A64" s="2"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1">
       <c r="A65" s="2"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1">
       <c r="A66" s="2"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1">
       <c r="A68" s="2"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1">
       <c r="A69" s="2"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1">
       <c r="A70" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E70">
+  <sortState ref="A2:E70">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\Postprocessing_Actin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\GitHub\Postprocessing_Elongated_Fiber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -240,6 +240,39 @@
   </si>
   <si>
     <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220217-Actin\results\Group_3</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20220908-Actin\Figures</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng15_mask20220625</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng20_mask20210402</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng10_mask20210402</t>
+  </si>
+  <si>
+    <t>CrMask_Rhombic_Phi20_Gap15_FlowAng0_mask20210402</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng0_mask20210402</t>
+  </si>
+  <si>
+    <t>CrMask_Rhombic_Phi20_Gap10_FlowAng0_mask20210402</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220908-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220908-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220908-Actin\results\M63_Phi20_G10_FlAng15_1.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220908-Actin\results\M63_Phi20_G10_FlAng15_16.mat</t>
   </si>
 </sst>
 </file>
@@ -581,8 +614,8 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K24" sqref="K24"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -597,7 +630,7 @@
     <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="55.28515625" customWidth="1"/>
     <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
@@ -815,13 +848,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="L5">
         <v>30</v>
       </c>
       <c r="M5">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -860,13 +893,13 @@
         <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="L6">
         <v>30</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -905,13 +938,13 @@
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="L7">
         <v>30</v>
       </c>
       <c r="M7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -949,13 +982,13 @@
         <v>20</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="L8">
         <v>30</v>
       </c>
       <c r="M8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -993,13 +1026,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="L9">
         <v>30</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1038,13 +1071,13 @@
         <v>20</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L10">
         <v>35</v>
       </c>
       <c r="M10">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1083,13 +1116,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L11">
         <v>35</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1128,13 +1161,13 @@
         <v>20</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L12">
         <v>35</v>
       </c>
       <c r="M12">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1173,13 +1206,13 @@
         <v>20</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="L13">
         <v>35</v>
       </c>
       <c r="M13">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1218,13 +1251,13 @@
         <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L14">
         <v>30</v>
       </c>
       <c r="M14">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N14">
         <v>10</v>
@@ -1263,13 +1296,13 @@
         <v>20</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L15">
         <v>30</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N15">
         <v>10</v>
@@ -1308,13 +1341,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="L16">
         <v>30</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N16">
         <v>10</v>
@@ -1353,13 +1386,13 @@
         <v>20</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="L17">
         <v>30</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N17">
         <v>20</v>
@@ -1388,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" ref="H18:H19" si="2">G18/F18/E18</f>
+        <f t="shared" ref="H18:H20" si="2">G18/F18/E18</f>
         <v>4.5454545454545459E-5</v>
       </c>
       <c r="I18">
@@ -1398,13 +1431,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="L18">
         <v>30</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N18">
         <v>20</v>
@@ -1443,23 +1476,107 @@
         <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="L19">
         <v>30</v>
       </c>
       <c r="M19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N19">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>400</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I20">
+        <v>0.1</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
+      <c r="K20" t="s">
+        <v>70</v>
+      </c>
+      <c r="L20">
+        <v>30</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21">
+        <v>50</v>
+      </c>
+      <c r="F21">
+        <v>400</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21" si="3">G21/F21/E21</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I21">
+        <v>0.1</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+      <c r="K21" t="s">
+        <v>70</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>19</v>
+      </c>
+      <c r="N21">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220908-Actin\results\M63_Phi20_G10_FlAng15_16.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220902-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220902-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20220902-Actin\results\M63_Phi20_G10_FlAng35_9.mat</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20220902-Actin\Figures</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng35_mask20220625</t>
   </si>
 </sst>
 </file>
@@ -614,8 +629,8 @@
   <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C21" sqref="C21"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21" si="3">G21/F21/E21</f>
+        <f t="shared" ref="H21:H22" si="3">G21/F21/E21</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="I21">
@@ -1579,10 +1594,94 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="2"/>
+      <c r="A22" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>400</v>
+      </c>
+      <c r="G22">
+        <v>0.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="I22">
+        <v>0.1</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>19</v>
+      </c>
+      <c r="N22">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="F23">
+        <v>400</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ref="H23" si="4">G23/F23/E23</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I23">
+        <v>0.1</v>
+      </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="M23">
+        <v>19</v>
+      </c>
+      <c r="N23">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="2"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -628,9 +628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -288,6 +288,39 @@
   </si>
   <si>
     <t>CrMask_Square_Phi20_Gap10_FlowAng35_mask20220625</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230313-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20221110-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230311-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20221110-Actin\results\M63_Phi20_G10_FlAng30_1nM_1nL_Expo20ms_1.mat</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20221110-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20230313-Actin\Figures</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20230311-Actin\Figures</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230313-Actin\results\M63_Phi20_G10_FlAng30_0.5nM_1nL_Expo20ms_4.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230311-Actin\results\M63_Phi20_G10_FlAng45_0.5nM_1nL_Expo20ms_2_Flipped.mat</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng35_mask20221027</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng35_mask20220726</t>
   </si>
 </sst>
 </file>
@@ -628,16 +661,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.5703125" customWidth="1"/>
-    <col min="3" max="3" width="104.42578125" customWidth="1"/>
+    <col min="3" max="3" width="143.7109375" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -1661,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23" si="4">G23/F23/E23</f>
+        <f t="shared" ref="H23:H26" si="4">G23/F23/E23</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="I23">
@@ -1684,13 +1717,139 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="2"/>
+      <c r="A24" s="2">
+        <v>44875</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24">
+        <v>50</v>
+      </c>
+      <c r="F24">
+        <v>400</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I24">
+        <v>0.1</v>
+      </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24">
+        <v>30</v>
+      </c>
+      <c r="M24">
+        <v>19</v>
+      </c>
+      <c r="N24">
+        <v>30</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>400</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
+      <c r="K25" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>19</v>
+      </c>
+      <c r="N25">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="2"/>
+      <c r="A26" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>400</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I26">
+        <v>0.1</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26" t="s">
+        <v>95</v>
+      </c>
+      <c r="L26">
+        <v>30</v>
+      </c>
+      <c r="M26">
+        <v>19</v>
+      </c>
+      <c r="N26">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>

--- a/ForActinPostprocessing.xlsx
+++ b/ForActinPostprocessing.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>Data to be processed (path)</t>
   </si>
@@ -317,10 +317,40 @@
     <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230311-Actin\results\M63_Phi20_G10_FlAng45_0.5nM_1nL_Expo20ms_2_Flipped.mat</t>
   </si>
   <si>
-    <t>CrMask_Square_Phi20_Gap10_FlowAng35_mask20221027</t>
-  </si>
-  <si>
-    <t>CrMask_Square_Phi20_Gap10_FlowAng35_mask20220726</t>
+    <t>D:\Dropbox\Research\All Plottings\20230412-Actin\Figures</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230412-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230412-Actin\results\Group_2</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230419-Actin\results\Group_1</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230412-Actin\results\M63_Phi20_G10_FlAng30_Expo20ms_1.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230412-Actin\results\M63_Phi20_G10_FlAng30_Expo20ms_35.mat</t>
+  </si>
+  <si>
+    <t>F:\Processing &amp; Results\Actin Filaments in Porous Media\20230419-Actin\results\M63_Phi20_G10_FlAng20_0.5nM_1nL_Expo20ms_1.mat</t>
+  </si>
+  <si>
+    <t>D:\Dropbox\Research\All Plottings\20230419-Actin\Figures</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng30_mask20221027</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng20_mask20221121</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng45_mask20220726</t>
+  </si>
+  <si>
+    <t>CrMask_Square_Phi20_Gap10_FlowAng30_mask20220726</t>
   </si>
 </sst>
 </file>
@@ -661,9 +691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1694,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H26" si="4">G23/F23/E23</f>
+        <f t="shared" ref="H23:H27" si="4">G23/F23/E23</f>
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="I23">
@@ -1749,7 +1779,7 @@
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L24">
         <v>30</v>
@@ -1794,7 +1824,7 @@
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L25">
         <v>30</v>
@@ -1839,7 +1869,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L26">
         <v>30</v>
@@ -1852,13 +1882,139 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
+      <c r="F27">
+        <v>400</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I27">
+        <v>0.1</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27" t="s">
+        <v>102</v>
+      </c>
+      <c r="L27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>30</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="2"/>
+      <c r="A28" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>50</v>
+      </c>
+      <c r="F28">
+        <v>400</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28" si="5">G28/F28/E28</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I28">
+        <v>0.1</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28" t="s">
+        <v>102</v>
+      </c>
+      <c r="L28">
+        <v>30</v>
+      </c>
+      <c r="M28">
+        <v>19</v>
+      </c>
+      <c r="N28">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>400</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29" si="6">G29/F29/E29</f>
+        <v>4.1666666666666665E-5</v>
+      </c>
+      <c r="I29">
+        <v>0.1</v>
+      </c>
+      <c r="J29">
+        <v>20</v>
+      </c>
+      <c r="K29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L29">
+        <v>30</v>
+      </c>
+      <c r="M29">
+        <v>19</v>
+      </c>
+      <c r="N29">
+        <v>20</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2"/>
